--- a/Manuscript/Table 3.xlsx
+++ b/Manuscript/Table 3.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10319"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10211"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenscherrer/Google Drive/Weng Lab/Data/Bottomfish/Okamoto's 1990s Mark Recapture Data/paper/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/stephenscherrer/Documents/Work/Disseratation/Ch-4.-Estimating-Growth-Parameters-master/Manuscript/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{94A3459C-F208-1F40-9AD0-A5332E8D1364}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C1FA7231-16E0-2E4D-B6BE-798EFB02709A}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2700" yWindow="1260" windowWidth="26440" windowHeight="15060" xr2:uid="{C169B959-E27F-6247-89E8-366A459DF2ED}"/>
+    <workbookView xWindow="11800" yWindow="7340" windowWidth="26440" windowHeight="15060" xr2:uid="{C169B959-E27F-6247-89E8-366A459DF2ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -440,7 +440,7 @@
   <dimension ref="A1:L9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:L9"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
